--- a/config_prac/AntiSac_prac.xlsx
+++ b/config_prac/AntiSac_prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Trial</t>
   </si>
@@ -1026,10 +1026,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1354,105 +1354,20 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>33.625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
-        <v>38.275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>42.425</v>
-      </c>
+    <row r="17" spans="6:6">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
